--- a/ajout_comptage.xlsx
+++ b/ajout_comptage.xlsx
@@ -16844,13 +16844,13 @@
         <v>787</v>
       </c>
       <c r="I271" s="2">
-        <v>45435</v>
+        <v>45811</v>
       </c>
       <c r="J271" s="2">
         <v>42541</v>
       </c>
       <c r="K271" s="2">
-        <v>45470</v>
+        <v>45838</v>
       </c>
       <c r="L271" t="s">
         <v>1059</v>
